--- a/·guidelines/课程.xlsx
+++ b/·guidelines/课程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="7000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="物理系" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="118">
   <si>
     <t>物理系毕业学分要求</t>
   </si>
@@ -277,6 +277,12 @@
   <si>
     <t>通识选修课程
 （12学分）</t>
+  </si>
+  <si>
+    <t>中文写作与语言认知</t>
+  </si>
+  <si>
+    <t>中外文化记忆研究</t>
   </si>
   <si>
     <t>西方音乐简史</t>
@@ -379,6 +385,9 @@
   </si>
   <si>
     <t>计算机视觉</t>
+  </si>
+  <si>
+    <t>分布与云计算</t>
   </si>
   <si>
     <t>工业实习</t>
@@ -1390,7 +1399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,9 +1459,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1960,21 +1966,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.6363636363636" style="65" customWidth="1"/>
-    <col min="2" max="2" width="16.2727272727273" style="65" customWidth="1"/>
-    <col min="3" max="3" width="14" style="65" customWidth="1"/>
-    <col min="4" max="4" width="5.54545454545455" style="65" customWidth="1"/>
-    <col min="5" max="5" width="17.8181818181818" style="65" customWidth="1"/>
-    <col min="6" max="6" width="18.5454545454545" style="65" customWidth="1"/>
-    <col min="7" max="7" width="25.2727272727273" style="65" customWidth="1"/>
-    <col min="8" max="8" width="45.5454545454545" style="65" customWidth="1"/>
-    <col min="9" max="9" width="25.2727272727273" style="65" customWidth="1"/>
-    <col min="10" max="10" width="27.5454545454545" style="65" customWidth="1"/>
-    <col min="11" max="11" width="32" style="65" customWidth="1"/>
-    <col min="12" max="12" width="25.2727272727273" style="65" customWidth="1"/>
-    <col min="13" max="13" width="52.2727272727273" style="65" customWidth="1"/>
-    <col min="14" max="14" width="5.54545454545455" style="65" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="65"/>
+    <col min="1" max="1" width="12.6363636363636" style="64" customWidth="1"/>
+    <col min="2" max="2" width="16.2727272727273" style="64" customWidth="1"/>
+    <col min="3" max="3" width="14" style="64" customWidth="1"/>
+    <col min="4" max="4" width="5.54545454545455" style="64" customWidth="1"/>
+    <col min="5" max="5" width="17.8181818181818" style="64" customWidth="1"/>
+    <col min="6" max="6" width="18.5454545454545" style="64" customWidth="1"/>
+    <col min="7" max="7" width="25.2727272727273" style="64" customWidth="1"/>
+    <col min="8" max="8" width="45.5454545454545" style="64" customWidth="1"/>
+    <col min="9" max="9" width="25.2727272727273" style="64" customWidth="1"/>
+    <col min="10" max="10" width="27.5454545454545" style="64" customWidth="1"/>
+    <col min="11" max="11" width="32" style="64" customWidth="1"/>
+    <col min="12" max="12" width="25.2727272727273" style="64" customWidth="1"/>
+    <col min="13" max="13" width="52.2727272727273" style="64" customWidth="1"/>
+    <col min="14" max="14" width="5.54545454545455" style="64" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:14">
@@ -1993,7 +1999,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="59"/>
+      <c r="N1" s="58"/>
     </row>
     <row r="2" ht="15.5" spans="1:14">
       <c r="A2" s="3" t="s">
@@ -2017,7 +2023,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="59" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2061,7 +2067,7 @@
       <c r="M3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2099,7 +2105,7 @@
       <c r="M4" s="8">
         <v>2</v>
       </c>
-      <c r="N4" s="61"/>
+      <c r="N4" s="60"/>
     </row>
     <row r="5" ht="15.5" spans="1:14">
       <c r="A5" s="7"/>
@@ -2131,7 +2137,7 @@
       <c r="M5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="60"/>
     </row>
     <row r="6" ht="15.5" spans="1:14">
       <c r="A6" s="7"/>
@@ -2150,7 +2156,7 @@
       <c r="F6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="66"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="9" t="s">
         <v>25</v>
       </c>
@@ -2169,7 +2175,7 @@
       <c r="M6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2186,7 +2192,7 @@
       <c r="F7" s="9">
         <v>2</v>
       </c>
-      <c r="G7" s="66"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="9">
         <v>1</v>
       </c>
@@ -2205,7 +2211,7 @@
       <c r="M7" s="9">
         <v>1</v>
       </c>
-      <c r="N7" s="61"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" ht="15.5" spans="1:14">
       <c r="A8" s="7"/>
@@ -2220,8 +2226,8 @@
       <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="47" t="s">
+      <c r="G8" s="65"/>
+      <c r="H8" s="46" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -2231,7 +2237,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="61"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" ht="15.5" spans="1:14">
       <c r="A9" s="7"/>
@@ -2271,7 +2277,7 @@
       <c r="M9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2309,7 +2315,7 @@
       <c r="M10" s="8">
         <v>2</v>
       </c>
-      <c r="N10" s="61"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" ht="15.5" spans="1:14">
       <c r="A11" s="7"/>
@@ -2341,7 +2347,7 @@
       <c r="M11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="61"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" ht="15.5" spans="1:14">
       <c r="A12" s="7"/>
@@ -2365,7 +2371,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="61" t="s">
+      <c r="N12" s="60" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2387,7 +2393,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="61"/>
+      <c r="N13" s="60"/>
     </row>
     <row r="14" ht="15.5" spans="1:14">
       <c r="A14" s="7"/>
@@ -2399,15 +2405,15 @@
       <c r="E14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="61"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="60"/>
     </row>
     <row r="15" ht="15.5" spans="1:14">
       <c r="A15" s="7"/>
@@ -2431,7 +2437,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="61" t="s">
+      <c r="N15" s="60" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2453,7 +2459,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="61"/>
+      <c r="N16" s="60"/>
     </row>
     <row r="17" ht="15.5" spans="1:14">
       <c r="A17" s="7"/>
@@ -2471,10 +2477,10 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="61"/>
+      <c r="N17" s="60"/>
     </row>
     <row r="18" ht="15.5" spans="1:14">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="67" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -2495,12 +2501,12 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
-      <c r="N18" s="62" t="s">
+      <c r="N18" s="61" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:14">
-      <c r="A19" s="68"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
@@ -2515,10 +2521,10 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="62"/>
+      <c r="N19" s="61"/>
     </row>
     <row r="20" ht="15.5" spans="1:14">
-      <c r="A20" s="68"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
@@ -2533,70 +2539,70 @@
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="62"/>
+      <c r="N20" s="61"/>
     </row>
     <row r="21" ht="15.5" spans="1:14">
-      <c r="A21" s="68"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>4</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="62" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="61" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:14">
-      <c r="A22" s="68"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="62"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="61"/>
     </row>
     <row r="23" ht="15.5" spans="1:14">
-      <c r="A23" s="68"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="62"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="61"/>
     </row>
     <row r="24" ht="15.5" spans="1:14">
-      <c r="A24" s="68"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="19" t="s">
         <v>52</v>
       </c>
@@ -2615,12 +2621,12 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
-      <c r="N24" s="62" t="s">
+      <c r="N24" s="61" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" ht="15.5" spans="1:14">
-      <c r="A25" s="68"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19" t="s">
@@ -2635,10 +2641,10 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
-      <c r="N25" s="62"/>
+      <c r="N25" s="61"/>
     </row>
     <row r="26" ht="15.5" spans="1:14">
-      <c r="A26" s="68"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
@@ -2653,337 +2659,337 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
-      <c r="N26" s="62"/>
+      <c r="N26" s="61"/>
     </row>
     <row r="27" ht="15.5" spans="1:14">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="26">
         <v>26</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="K27" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M27" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="63" t="s">
+      <c r="N27" s="62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" ht="15.5" spans="1:14">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="26">
         <v>4</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="26">
         <v>3</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="26">
         <v>3</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="26">
         <v>2</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="26">
         <v>2</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="26">
         <v>3</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="26">
         <v>3</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="26">
         <v>3</v>
       </c>
-      <c r="M28" s="27">
+      <c r="M28" s="26">
         <v>3</v>
       </c>
-      <c r="N28" s="63"/>
+      <c r="N28" s="62"/>
     </row>
     <row r="29" ht="15.5" spans="1:14">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="63"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="62"/>
     </row>
     <row r="30" ht="15.5" spans="1:14">
-      <c r="A30" s="26"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="28">
         <v>19</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="69" t="s">
+      <c r="F30" s="28"/>
+      <c r="G30" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="69" t="s">
+      <c r="I30" s="28"/>
+      <c r="J30" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="69" t="s">
+      <c r="K30" s="28"/>
+      <c r="L30" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="M30" s="69" t="s">
+      <c r="M30" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="N30" s="63" t="s">
+      <c r="N30" s="62" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" ht="15.5" spans="1:14">
-      <c r="A31" s="26"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="28">
         <v>3</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29">
+      <c r="F31" s="28"/>
+      <c r="G31" s="28">
         <v>3</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="28">
         <v>3</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29">
+      <c r="I31" s="28"/>
+      <c r="J31" s="28">
         <v>3</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29">
+      <c r="K31" s="28"/>
+      <c r="L31" s="28">
         <v>4</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="28">
         <v>3</v>
       </c>
-      <c r="N31" s="63"/>
+      <c r="N31" s="62"/>
     </row>
     <row r="32" ht="15.5" spans="1:14">
-      <c r="A32" s="26"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="63"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="62"/>
     </row>
     <row r="33" ht="15.5" spans="1:14">
-      <c r="A33" s="26"/>
-      <c r="B33" s="31" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="30">
         <v>17</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="63" t="s">
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" ht="15.5" spans="1:14">
-      <c r="A34" s="26"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="63"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="62"/>
     </row>
     <row r="35" ht="15.5" spans="1:14">
-      <c r="A35" s="26"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="63"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="62"/>
     </row>
     <row r="36" ht="15.5" spans="1:14">
-      <c r="A36" s="26"/>
-      <c r="B36" s="29" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="28">
         <v>10</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="69" t="s">
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="63" t="s">
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="62" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" ht="15.5" spans="1:14">
-      <c r="A37" s="26"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="28">
         <v>2</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29">
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28">
         <v>8</v>
       </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="63"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="62"/>
     </row>
     <row r="38" ht="15.5" spans="1:14">
-      <c r="A38" s="26"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="63"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="62"/>
     </row>
     <row r="39" ht="16.25" spans="1:14">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="70">
+      <c r="B39" s="69">
         <v>140</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="64" t="s">
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="63" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3061,8 +3067,8 @@
   <sheetPr/>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3102,10 +3108,10 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="59"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" ht="15.5" spans="1:17">
       <c r="A2" s="3" t="s">
@@ -3132,7 +3138,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="59" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3170,14 +3176,14 @@
       <c r="K3" s="16"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="40"/>
+      <c r="N3" s="39"/>
       <c r="O3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="61" t="s">
+      <c r="Q3" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3206,17 +3212,17 @@
       <c r="J4" s="8">
         <v>3</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="8">
         <v>3</v>
       </c>
       <c r="P4" s="8">
         <v>2</v>
       </c>
-      <c r="Q4" s="61"/>
+      <c r="Q4" s="60"/>
     </row>
     <row r="5" ht="15.5" spans="1:17">
       <c r="A5" s="7"/>
@@ -3246,14 +3252,14 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="44"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="61"/>
+      <c r="Q5" s="60"/>
     </row>
     <row r="6" ht="15.5" spans="1:17">
       <c r="A6" s="7"/>
@@ -3275,17 +3281,17 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46" t="s">
+      <c r="J6" s="44"/>
+      <c r="K6" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="46" t="s">
+      <c r="N6" s="45" t="s">
         <v>28</v>
       </c>
       <c r="O6" s="9" t="s">
@@ -3294,7 +3300,7 @@
       <c r="P6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="61" t="s">
+      <c r="Q6" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3314,7 +3320,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="45"/>
+      <c r="J7" s="44"/>
       <c r="K7" s="9">
         <v>1</v>
       </c>
@@ -3333,7 +3339,7 @@
       <c r="P7" s="9">
         <v>0</v>
       </c>
-      <c r="Q7" s="61"/>
+      <c r="Q7" s="60"/>
     </row>
     <row r="8" ht="15.5" spans="1:17">
       <c r="A8" s="7"/>
@@ -3351,11 +3357,11 @@
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="45"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="46" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="9" t="s">
@@ -3368,7 +3374,7 @@
         <v>21</v>
       </c>
       <c r="P8" s="9"/>
-      <c r="Q8" s="61"/>
+      <c r="Q8" s="60"/>
     </row>
     <row r="9" ht="15.5" spans="1:17">
       <c r="A9" s="7"/>
@@ -3396,9 +3402,9 @@
       <c r="I9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="48"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="40"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="8" t="s">
         <v>38</v>
       </c>
@@ -3411,7 +3417,7 @@
       <c r="P9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="61" t="s">
+      <c r="Q9" s="60" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3439,7 +3445,7 @@
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="40"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="8">
         <v>1</v>
       </c>
@@ -3452,7 +3458,7 @@
       <c r="P10" s="8">
         <v>2</v>
       </c>
-      <c r="Q10" s="61"/>
+      <c r="Q10" s="60"/>
     </row>
     <row r="11" ht="15.5" spans="1:17">
       <c r="A11" s="7"/>
@@ -3478,7 +3484,7 @@
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="40"/>
+      <c r="L11" s="39"/>
       <c r="M11" s="8" t="s">
         <v>21</v>
       </c>
@@ -3491,7 +3497,7 @@
       <c r="P11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="61"/>
+      <c r="Q11" s="60"/>
     </row>
     <row r="12" ht="15.5" spans="1:17">
       <c r="A12" s="7"/>
@@ -3518,7 +3524,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="61" t="s">
+      <c r="Q12" s="60" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3543,7 +3549,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
-      <c r="Q13" s="61"/>
+      <c r="Q13" s="60"/>
     </row>
     <row r="14" ht="15.5" spans="1:17">
       <c r="A14" s="7"/>
@@ -3566,7 +3572,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="61"/>
+      <c r="Q14" s="60"/>
     </row>
     <row r="15" ht="15.5" spans="1:17">
       <c r="A15" s="7"/>
@@ -3592,8 +3598,8 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="61" t="s">
+      <c r="P15" s="39"/>
+      <c r="Q15" s="60" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3617,8 +3623,8 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="61"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="60"/>
     </row>
     <row r="17" ht="15.5" spans="1:17">
       <c r="A17" s="7"/>
@@ -3638,8 +3644,8 @@
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="61"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="60"/>
     </row>
     <row r="18" ht="15.5" spans="1:17">
       <c r="A18" s="18" t="s">
@@ -3654,135 +3660,147 @@
       <c r="D18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="E18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
-      <c r="Q18" s="62" t="s">
+      <c r="Q18" s="61" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:17">
-      <c r="A19" s="21"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="E19" s="19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
-      <c r="Q19" s="62"/>
+      <c r="Q19" s="61"/>
     </row>
     <row r="20" ht="15.5" spans="1:17">
-      <c r="A20" s="21"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="E20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
-      <c r="Q20" s="62"/>
+      <c r="Q20" s="61"/>
     </row>
     <row r="21" ht="15.5" spans="1:17">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>4</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="62" t="s">
+      <c r="E21" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="61" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:17">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="62"/>
+      <c r="E22" s="21">
+        <v>2</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="61"/>
     </row>
     <row r="23" ht="15.5" spans="1:17">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="62"/>
+      <c r="E23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="61"/>
     </row>
     <row r="24" ht="15.5" spans="1:17">
-      <c r="A24" s="21"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="19" t="s">
         <v>52</v>
       </c>
@@ -3793,7 +3811,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -3806,12 +3824,12 @@
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
-      <c r="Q24" s="62" t="s">
+      <c r="Q24" s="61" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" ht="15.5" spans="1:17">
-      <c r="A25" s="21"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19" t="s">
@@ -3831,16 +3849,18 @@
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
-      <c r="Q25" s="62"/>
+      <c r="Q25" s="61"/>
     </row>
     <row r="26" ht="15.5" spans="1:17">
-      <c r="A26" s="21"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -3852,533 +3872,545 @@
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
-      <c r="Q26" s="62"/>
+      <c r="Q26" s="61"/>
     </row>
     <row r="27" ht="15.5" spans="1:17">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="22">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="21">
         <v>2</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="O27" s="22" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="P27" s="22" t="s">
+      <c r="N27" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="Q27" s="62" t="s">
+      <c r="O27" s="21" t="s">
         <v>87</v>
       </c>
+      <c r="P27" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q27" s="61" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="28" ht="15.5" spans="1:17">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>3</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="22">
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="21">
         <v>2</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="21">
         <v>2</v>
       </c>
-      <c r="O28" s="22">
+      <c r="O28" s="21">
         <v>3</v>
       </c>
-      <c r="P28" s="22">
+      <c r="P28" s="21">
         <v>2</v>
       </c>
-      <c r="Q28" s="62"/>
+      <c r="Q28" s="61"/>
     </row>
     <row r="29" ht="15.5" spans="1:17">
-      <c r="A29" s="25"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="62"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="61"/>
     </row>
     <row r="30" ht="15.5" spans="1:17">
-      <c r="A30" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="27">
-        <v>21</v>
-      </c>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="26">
+        <v>21</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="H30" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="K30" s="50"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="28" t="s">
+      <c r="I30" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="Q30" s="63" t="s">
+      <c r="J30" s="27" t="s">
         <v>96</v>
       </c>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q30" s="62" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="31" ht="15.5" spans="1:17">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="26">
         <v>3</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="26">
         <v>3</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="26">
         <v>3</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="26">
         <v>3</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="26">
         <v>3</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="26">
         <v>3</v>
       </c>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="27">
+      <c r="K31" s="52"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="26">
         <v>3</v>
       </c>
-      <c r="Q31" s="63"/>
+      <c r="Q31" s="62"/>
     </row>
     <row r="32" ht="15.5" spans="1:17">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q32" s="63"/>
+      <c r="E32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="52"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="62"/>
     </row>
     <row r="33" ht="15.5" spans="1:17">
-      <c r="A33" s="26"/>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <v>24</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="29" t="s">
+      <c r="E33" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="H33" s="29" t="s">
+      <c r="F33" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="I33" s="29" t="s">
+      <c r="G33" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="H33" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="K33" s="29" t="s">
+      <c r="I33" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="L33" s="29" t="s">
+      <c r="J33" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="29" t="s">
+      <c r="K33" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="N33" s="34" t="s">
+      <c r="L33" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="O33" s="34" t="s">
+      <c r="M33" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="P33" s="34" t="s">
+      <c r="N33" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="Q33" s="63" t="s">
+      <c r="O33" s="33" t="s">
         <v>109</v>
       </c>
+      <c r="P33" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q33" s="62" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="34" ht="15.5" spans="1:17">
-      <c r="A34" s="26"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="28">
         <v>3</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="28">
         <v>3</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="28">
         <v>3</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="28">
         <v>3</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="28">
         <v>2</v>
       </c>
-      <c r="J34" s="29">
+      <c r="J34" s="28">
         <v>1</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="28">
         <v>3</v>
       </c>
-      <c r="L34" s="29">
+      <c r="L34" s="28">
         <v>3</v>
       </c>
-      <c r="M34" s="29">
+      <c r="M34" s="28">
         <v>2</v>
       </c>
-      <c r="N34" s="34">
+      <c r="N34" s="33">
         <v>1</v>
       </c>
-      <c r="O34" s="34">
+      <c r="O34" s="33">
         <v>2</v>
       </c>
-      <c r="P34" s="34">
+      <c r="P34" s="33">
         <v>1</v>
       </c>
-      <c r="Q34" s="63"/>
+      <c r="Q34" s="62"/>
     </row>
     <row r="35" ht="46.5" spans="1:17">
-      <c r="A35" s="26"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="63"/>
+      <c r="E35" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="62"/>
     </row>
     <row r="36" ht="15.5" spans="1:17">
-      <c r="A36" s="26"/>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <v>16</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" s="31" t="s">
+      <c r="E36" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="63" t="s">
+      <c r="F36" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" ht="15.5" spans="1:17">
-      <c r="A37" s="26"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="30">
         <v>3</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="30">
         <v>3</v>
       </c>
-      <c r="G37" s="31">
+      <c r="G37" s="30">
         <v>3</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="63"/>
+      <c r="H37" s="30">
+        <v>3</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="62"/>
     </row>
     <row r="38" ht="15.5" spans="1:17">
-      <c r="A38" s="26"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="63"/>
+      <c r="E38" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="62"/>
     </row>
     <row r="39" ht="15.5" spans="1:17">
-      <c r="A39" s="26"/>
-      <c r="B39" s="29" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="28">
         <v>10</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="32" t="s">
+      <c r="E39" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="63" t="s">
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="62" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="40" ht="15.5" spans="1:17">
-      <c r="A40" s="26"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="33">
         <v>2</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="34">
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="33">
         <v>8</v>
       </c>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="63"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="62"/>
     </row>
     <row r="41" ht="15.5" spans="1:17">
-      <c r="A41" s="26"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="63"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="62"/>
     </row>
     <row r="42" ht="16.25" spans="1:17">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="36">
         <v>138</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="64" t="s">
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="63" t="s">
         <v>50</v>
       </c>
     </row>
